--- a/Config/Translation_pathway.xlsx
+++ b/Config/Translation_pathway.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Data\SInAS workflow - native and alien\v7\Config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E1B046-4076-4AF3-924F-47BFA5D0CFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>origTerm</t>
   </si>
@@ -184,12 +190,66 @@
   </si>
   <si>
     <t>newTerm</t>
+  </si>
+  <si>
+    <t>Hunting</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>Conservation</t>
+  </si>
+  <si>
+    <t>Zoo</t>
+  </si>
+  <si>
+    <t>Fauna Improvement, Hunting</t>
+  </si>
+  <si>
+    <t>Conservation, Zoo</t>
+  </si>
+  <si>
+    <t>Stowaway (L)</t>
+  </si>
+  <si>
+    <t>Biological Control</t>
+  </si>
+  <si>
+    <t>Hunting (L)</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Wild Fur</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Stowaway</t>
+  </si>
+  <si>
+    <t>Ornamental Purposes</t>
+  </si>
+  <si>
+    <t>Pet (L)</t>
+  </si>
+  <si>
+    <t>Conservation (L)</t>
+  </si>
+  <si>
+    <t>Biological Control (L)</t>
+  </si>
+  <si>
+    <t>Fur Farming</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -230,7 +290,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -238,14 +298,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +346,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -355,7 +418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -528,21 +591,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125"/>
-    <col min="2" max="2" width="57.42578125"/>
-    <col min="3" max="1025" width="11.28515625"/>
+    <col min="1" max="1" width="19.44140625"/>
+    <col min="2" max="2" width="57.44140625"/>
+    <col min="3" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +613,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -558,254 +621,398 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>53</v>
       </c>
     </row>
